--- a/25NKUMCM-C/extra_data.xlsx
+++ b/25NKUMCM-C/extra_data.xlsx
@@ -1265,15 +1265,16 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="3" width="8.81818181818182"/>
+    <col min="2" max="2" width="8.81818181818182"/>
+    <col min="3" max="3" width="9.54545454545454"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" ht="14.75" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1298,7 +1299,7 @@
         <v>6.8</v>
       </c>
       <c r="C2" s="1">
-        <v>967.2565</v>
+        <v>704.2</v>
       </c>
       <c r="D2" s="2">
         <v>9.07</v>
@@ -1315,7 +1316,7 @@
         <v>6.9</v>
       </c>
       <c r="C3" s="1">
-        <v>826.5064</v>
+        <v>735.8</v>
       </c>
       <c r="D3" s="2">
         <v>9.02</v>
@@ -1332,7 +1333,7 @@
         <v>6.8</v>
       </c>
       <c r="C4" s="1">
-        <v>797.1991</v>
+        <v>753.3087</v>
       </c>
       <c r="D4" s="2">
         <v>8.97</v>
@@ -1366,7 +1367,7 @@
         <v>2.3</v>
       </c>
       <c r="C6" s="1">
-        <v>753.3087</v>
+        <v>797.1991</v>
       </c>
       <c r="D6" s="2">
         <v>8.94</v>
@@ -1383,7 +1384,7 @@
         <v>8.6</v>
       </c>
       <c r="C7" s="1">
-        <v>735.8</v>
+        <v>826.5064</v>
       </c>
       <c r="D7" s="2">
         <v>8.82</v>
@@ -1400,7 +1401,7 @@
         <v>3.1</v>
       </c>
       <c r="C8" s="2">
-        <v>704.2</v>
+        <v>967.2565</v>
       </c>
       <c r="D8" s="3">
         <v>8.76</v>
@@ -1410,6 +1411,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="C2:C8">
+    <sortCondition ref="C2"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
